--- a/data/locatorsRepository.xlsx
+++ b/data/locatorsRepository.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\Parallax\Orange - HRM\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7F6109C8-600F-4213-B4FB-DD4841D5C6E1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1CD2B46A-0171-4B11-9DBC-E1284F4D8329}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{50101948-937F-4E77-9116-ABD2FCFD8B92}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="15">
   <si>
     <t>ElementPath</t>
   </si>
@@ -64,6 +64,12 @@
   </si>
   <si>
     <t>//button[normalize-space()='Login']</t>
+  </si>
+  <si>
+    <t>//span[normalize-space()='Leave']</t>
+  </si>
+  <si>
+    <t>Leave</t>
   </si>
 </sst>
 </file>
@@ -426,10 +432,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CC279FBF-12DE-45EF-B52F-D56C9334DC93}">
-  <dimension ref="A1:C6"/>
+  <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+      <selection activeCell="C21" sqref="C21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -501,6 +507,17 @@
         <v>3</v>
       </c>
     </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>14</v>
+      </c>
+      <c r="B7" t="s">
+        <v>13</v>
+      </c>
+      <c r="C7" t="s">
+        <v>3</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A2:C2"/>
